--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2730345.029478647</v>
+        <v>2727799.843405362</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.490321361499</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>127.9907220675518</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>67.25025504144566</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>381.973058908963</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>116.4866385018648</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>266.621094969053</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>369.7832985025069</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>61.32905684098937</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>49.94675160484172</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>232.6900396322375</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.1208074460221</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977589</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H43" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.7879015331887</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>558.825384592777</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>200.5596859860265</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.38774159731</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>352.2263397260238</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>352.2263397260238</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>183.2265394643562</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>183.2265394643562</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1748.280186455193</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1748.280186455193</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1390.014487848443</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.226235250198</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>593.2403304605909</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,13 +4580,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.880026519315</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628423</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628423</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628423</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>836.241962939891</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>836.241962939891</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980024</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1973.365536512648</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1599.899778251568</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1209.760446275757</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1385.11694267384</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1583.773684326505</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2133.209693079228</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2557.177461560065</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423.447068407922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>254.510885480015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>104.3942460676793</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>104.3942460676793</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>104.3942460676793</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4993,19 +4993,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>818.837219206742</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>825.8881123816918</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>605.0955332381617</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>228.9331431646413</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5653,16 +5653,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>150.8995423128888</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8243144841094</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7020,22 +7020,22 @@
         <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7391,25 +7391,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>160.408845469472</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>56.94306717106267</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>16.3131552005471</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543359</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H43" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
@@ -26326,31 +26326,31 @@
         <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26366,13 +26366,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481115</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682753</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682747</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="N4" t="n">
+        <v>5677.536566682765</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682776</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682773</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.53656668276</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225915.9568495607</v>
+        <v>-225915.9568495603</v>
       </c>
       <c r="C6" t="n">
-        <v>364051.9223649839</v>
+        <v>364051.9223649832</v>
       </c>
       <c r="D6" t="n">
-        <v>208248.1162711889</v>
+        <v>208248.1162711892</v>
       </c>
       <c r="E6" t="n">
-        <v>-232135.4780193912</v>
+        <v>-232170.2159448271</v>
       </c>
       <c r="F6" t="n">
-        <v>538917.2133614152</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="G6" t="n">
-        <v>538917.213361415</v>
+        <v>538882.4754359799</v>
       </c>
       <c r="H6" t="n">
-        <v>538917.2133614152</v>
+        <v>538882.4754359797</v>
       </c>
       <c r="I6" t="n">
-        <v>538917.213361415</v>
+        <v>538882.4754359797</v>
       </c>
       <c r="J6" t="n">
-        <v>362493.9941688221</v>
+        <v>362459.2562433864</v>
       </c>
       <c r="K6" t="n">
-        <v>538917.213361415</v>
+        <v>538882.4754359792</v>
       </c>
       <c r="L6" t="n">
-        <v>538917.2133614151</v>
+        <v>538882.4754359799</v>
       </c>
       <c r="M6" t="n">
-        <v>414708.7026533567</v>
+        <v>414673.9647279208</v>
       </c>
       <c r="N6" t="n">
-        <v>538917.2133614151</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="O6" t="n">
-        <v>538917.213361415</v>
+        <v>538882.4754359794</v>
       </c>
       <c r="P6" t="n">
-        <v>538917.213361415</v>
+        <v>538882.4754359794</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209783</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>257.4400487107628</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>6.974899724786439</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>157.7848504166386</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>31.81111111183202</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>232.7543302155482</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753801</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12.95054316097372</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>320.6013132312724</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>116.9740249497287</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28065,16 +28065,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>53.57061502585952</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>263.3189197138075</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33026,16 +33026,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>353.3934907042774</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4971006716333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>348.9941109496817</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>79.90967444578689</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.4812930471408</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>219.4190832899471</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>57.65947400496659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
